--- a/src/redirectPage.xlsx
+++ b/src/redirectPage.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20358"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876D75D-8D86-4998-92FD-1C2285468B18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -62,22 +61,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>跳转界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级房子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>game/cmd/pkgUICMD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跳转界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转参数</t>
+    <t>game/house/pkgUIHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game/cropland/pkgUICropland</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,22 +420,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" activeCellId="1" sqref="F1 H8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,19 +443,19 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -460,7 +475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -480,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -488,7 +503,29 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -499,10 +536,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -510,24 +563,8 @@
 </settings>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,13 +575,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -556,13 +593,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
